--- a/models/Random Forests/All_Meta/metrics.xlsx
+++ b/models/Random Forests/All_Meta/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7321022335396599</v>
+        <v>0.7414290844041961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996518008850235</v>
+        <v>0.9996381001246998</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8548759357597152</v>
+        <v>0.847372740482639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8235902946709827</v>
+        <v>0.7940113874328273</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7893741966580977</v>
+        <v>0.8021328727506426</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9233377095554405</v>
+        <v>0.9290935199562917</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9026656687801533</v>
+        <v>0.9049152571085297</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8330972767655959</v>
+        <v>0.8196987444160772</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9150240450888261</v>
+        <v>0.9140721516591632</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8934340521423253</v>
+        <v>0.888866874619255</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8984039576529302</v>
+        <v>0.8826166929653957</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9202755974674828</v>
+        <v>0.9276219673067378</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7264474983523788</v>
+        <v>0.7214167792450062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9996804297654498</v>
+        <v>0.9995671986900246</v>
       </c>
       <c r="D3" t="n">
-        <v>0.857914777395697</v>
+        <v>0.8596897728310154</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8313703353725529</v>
+        <v>0.8128775979085512</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7736921593830335</v>
+        <v>0.7984150064267352</v>
       </c>
       <c r="G3" t="n">
-        <v>0.922760578416149</v>
+        <v>0.9301848796583851</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8975336189443223</v>
+        <v>0.9058856336919615</v>
       </c>
       <c r="I3" t="n">
-        <v>0.821094424869152</v>
+        <v>0.8187633262260128</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9082866514363718</v>
+        <v>0.921451654245482</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8915331473793462</v>
+        <v>0.8799934004196658</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8627814116913141</v>
+        <v>0.8875901343069978</v>
       </c>
       <c r="M3" t="n">
-        <v>0.925328622287353</v>
+        <v>0.9306777377524835</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7383265202454901</v>
+        <v>0.7489424569593118</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9995748197379546</v>
+        <v>0.9996459495186352</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8453628541432093</v>
+        <v>0.8434380800949453</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8049904069458216</v>
+        <v>0.7970473114990089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7751196979434447</v>
+        <v>0.7877273457583549</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9222625248015874</v>
+        <v>0.9219767673826778</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8980283633169853</v>
+        <v>0.9076118094048343</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8186384116243607</v>
+        <v>0.808272901891111</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9098737614208583</v>
+        <v>0.9092793402987345</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8877605988132037</v>
+        <v>0.8867350550529094</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9204352592565411</v>
+        <v>0.9011148673443177</v>
       </c>
       <c r="M4" t="n">
-        <v>0.918318588423782</v>
+        <v>0.9309041975879632</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7477551842599061</v>
+        <v>0.7375350051125528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996031917291252</v>
+        <v>0.999605817708187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8488581639329297</v>
+        <v>0.8513701652414717</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7852530182598021</v>
+        <v>0.8148886064332085</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7377426092544986</v>
+        <v>0.785345437017995</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9215795825425581</v>
+        <v>0.9203475906515989</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8997293457255434</v>
+        <v>0.9015115548221504</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7980683398176822</v>
+        <v>0.8232958045028831</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9145341273353988</v>
+        <v>0.9110149158533659</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8849952618397599</v>
+        <v>0.8904011360303243</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9007169461671132</v>
+        <v>0.9517403031081427</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9188507211260515</v>
+        <v>0.9247667846983421</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7304447592502172</v>
+        <v>0.729535009491613</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999672095136253</v>
+        <v>0.9996196040982629</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8681168406317519</v>
+        <v>0.8571511442135055</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7986825176584407</v>
+        <v>0.8154740506137458</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7757575514138817</v>
+        <v>0.7887885604113111</v>
       </c>
       <c r="G6" t="n">
-        <v>0.924342128910743</v>
+        <v>0.9228414531573499</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8963907985365296</v>
+        <v>0.8982103632222931</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8172720380585965</v>
+        <v>0.8251877802771375</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9188306874049039</v>
+        <v>0.9029845491489961</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8847675199115543</v>
+        <v>0.8940168035468513</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8972468900223846</v>
+        <v>0.8981298851418297</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9285738013119978</v>
+        <v>0.9142851119746467</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7313304241776672</v>
+        <v>0.7325538241238048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996140096211306</v>
+        <v>0.9996126966315995</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8455625589604698</v>
+        <v>0.8443804966373514</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8052784703290833</v>
+        <v>0.7854121907492055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7575313303341903</v>
+        <v>0.7353325835475578</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9239415742897401</v>
+        <v>0.9249343117379802</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9013842851986296</v>
+        <v>0.8978198670054152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8041588875297753</v>
+        <v>0.8061253316242454</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9171824774116248</v>
+        <v>0.9091172762510227</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8917400893481645</v>
+        <v>0.8937506345750322</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8815582455689698</v>
+        <v>0.8789471028586107</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9239363254991219</v>
+        <v>0.9213612631667709</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7309127713101491</v>
+        <v>0.7325253602324405</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9995815844883644</v>
+        <v>0.9995652292057281</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8471174036091415</v>
+        <v>0.8539030880070601</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8253683678452937</v>
+        <v>0.825567139344256</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7559238431876607</v>
+        <v>0.7930085154241644</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9236178506728779</v>
+        <v>0.9253097053283874</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8989422721493668</v>
+        <v>0.8957144886258747</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8049184643959755</v>
+        <v>0.8164543278585505</v>
       </c>
       <c r="J8" t="n">
-        <v>0.915739175984418</v>
+        <v>0.9110156609754245</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8865044927912276</v>
+        <v>0.8856107996209472</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9001665076510954</v>
+        <v>0.8815570988220616</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9206173633687001</v>
+        <v>0.9285549562763232</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7330442788673123</v>
+        <v>0.7410694540844589</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9996549406425976</v>
+        <v>0.9996073875869742</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8529544901250723</v>
+        <v>0.8561122036760902</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7791648646529147</v>
+        <v>0.8086249748623935</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7512749035989716</v>
+        <v>0.7679153277634961</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9250733713624339</v>
+        <v>0.9141925735420979</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9050585983227342</v>
+        <v>0.9050555577515237</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8087797669093534</v>
+        <v>0.7966875530286506</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9072876290365126</v>
+        <v>0.9123218599438774</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8870435290268721</v>
+        <v>0.8952034588569753</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8994360298704633</v>
+        <v>0.9142726413709589</v>
       </c>
       <c r="M9" t="n">
-        <v>0.915644190394909</v>
+        <v>0.9186427869188623</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7199881108515301</v>
+        <v>0.7545241165793409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996257979836591</v>
+        <v>0.999598453549513</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8383199309211529</v>
+        <v>0.8508899227047261</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7671974228032838</v>
+        <v>0.8017611465388523</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7786278920308485</v>
+        <v>0.774769440874036</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9263851147342996</v>
+        <v>0.9231966280624569</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8958752045327097</v>
+        <v>0.8990743198133612</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8257028127885648</v>
+        <v>0.821876102011029</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9075713342602652</v>
+        <v>0.9113153863234338</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8887170444033302</v>
+        <v>0.8937125600731031</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8956334171223075</v>
+        <v>0.8978592528714542</v>
       </c>
       <c r="M10" t="n">
-        <v>0.927433836357376</v>
+        <v>0.9235466484902571</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.74572877414778</v>
+        <v>0.7399319931949405</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9996516010822687</v>
+        <v>0.9996404121280044</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8471535406713125</v>
+        <v>0.8388191929643042</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8149530518801377</v>
+        <v>0.8392862550284919</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7607495179948587</v>
+        <v>0.7709190231362468</v>
       </c>
       <c r="G11" t="n">
-        <v>0.921912067589717</v>
+        <v>0.9191405351391765</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8991181909122539</v>
+        <v>0.9002992356438344</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8156058694488673</v>
+        <v>0.7957713524696097</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9100846309633981</v>
+        <v>0.9142498632701023</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8877531954378285</v>
+        <v>0.8958101830960493</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9194800190818686</v>
+        <v>0.8992571373527577</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9197121628415503</v>
+        <v>0.9206362084043749</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7360108184682486</v>
+        <v>0.7271708643607995</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9996436375153307</v>
+        <v>0.9995907183285804</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8428289804023006</v>
+        <v>0.8468848901433311</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8009427670079687</v>
+        <v>0.8079044281786552</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7591147172236504</v>
+        <v>0.8267609254498715</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9239546041091558</v>
+        <v>0.9286338818438004</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9018121370046638</v>
+        <v>0.8977025878301571</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8267035709241085</v>
+        <v>0.809305849558619</v>
       </c>
       <c r="J12" t="n">
-        <v>0.908921681710681</v>
+        <v>0.9158544836229624</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8931580120033393</v>
+        <v>0.8944930873626499</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9001756816263623</v>
+        <v>0.9345517136985799</v>
       </c>
       <c r="M12" t="n">
-        <v>0.920205966657702</v>
+        <v>0.9289037491399956</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7261866705786271</v>
+        <v>0.7382882034686536</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9995567233170271</v>
+        <v>0.9996306503362737</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8613031024618849</v>
+        <v>0.8395134049481148</v>
       </c>
       <c r="E13" t="n">
-        <v>0.798441817796416</v>
+        <v>0.7871988048863624</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8288929948586119</v>
+        <v>0.7696842866323907</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9266315580429031</v>
+        <v>0.928861679031516</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9014272875628909</v>
+        <v>0.9021381296751496</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8118613140439566</v>
+        <v>0.8090113393631853</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9120647928337142</v>
+        <v>0.9165252797560768</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8865728858780262</v>
+        <v>0.8867114347600461</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9701157755678691</v>
+        <v>0.9191807181387839</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9148255492689085</v>
+        <v>0.9206732596609555</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7359092790096318</v>
+        <v>0.7318159524784387</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9996924179307332</v>
+        <v>0.9995762183572378</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8520054167554244</v>
+        <v>0.852716746295</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8237005507368134</v>
+        <v>0.8235530250149272</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8049325192802057</v>
+        <v>0.7728574871465296</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9234482383684149</v>
+        <v>0.9277638044197147</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9052562354514097</v>
+        <v>0.9003743811894628</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8144893250864073</v>
+        <v>0.8441195490390703</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9107861633814235</v>
+        <v>0.9104489956499773</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8986125369463684</v>
+        <v>0.8873054674984771</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9347237257348353</v>
+        <v>0.9007146526732964</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9198396063878922</v>
+        <v>0.9256579313005822</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7348785577127293</v>
+        <v>0.7415911096319618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996974986293532</v>
+        <v>0.9996524002932876</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8514828558169258</v>
+        <v>0.8423026155625208</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8106755823966096</v>
+        <v>0.8003270412318864</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7828430269922879</v>
+        <v>0.7969151670951157</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9219972107200368</v>
+        <v>0.9216876401828846</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9012895931237916</v>
+        <v>0.9014863615178358</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8265248469555908</v>
+        <v>0.8180931113440715</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9051563936688469</v>
+        <v>0.9211463404820345</v>
       </c>
       <c r="K15" t="n">
-        <v>0.899230895061032</v>
+        <v>0.8875384975519505</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9000277512751826</v>
+        <v>0.8808071263439873</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9210878504457969</v>
+        <v>0.9182808983524329</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7339009325208716</v>
+        <v>0.7422288102750269</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9995263818415603</v>
+        <v>0.9995590638635824</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8438346368035057</v>
+        <v>0.8466309797328139</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8049112089267039</v>
+        <v>0.8061612953068962</v>
       </c>
       <c r="F16" t="n">
-        <v>0.708506587403599</v>
+        <v>0.7665793701799486</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9191266067115254</v>
+        <v>0.91840232847366</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9032477209832861</v>
+        <v>0.9004577797140907</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8198630551613273</v>
+        <v>0.8222417174412493</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9144625956177882</v>
+        <v>0.9042112063377101</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8956892612982559</v>
+        <v>0.891543018546513</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8778244376353161</v>
+        <v>0.8986241330593373</v>
       </c>
       <c r="M16" t="n">
-        <v>0.918623303068419</v>
+        <v>0.9206304590714571</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7439766026812985</v>
+        <v>0.7325527293587523</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996196326415134</v>
+        <v>0.9996105273445484</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8451165515352546</v>
+        <v>0.8392842198959253</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8455630862691598</v>
+        <v>0.7988090791987955</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7994529241645245</v>
+        <v>0.8103703406169666</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9267499496779388</v>
+        <v>0.9219044294197148</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9031295730733965</v>
+        <v>0.9012318222707941</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8085818253098123</v>
+        <v>0.8237776866007951</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9106751401947153</v>
+        <v>0.9064815932497903</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8855501624512083</v>
+        <v>0.8834105869678031</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8621679020953359</v>
+        <v>0.9012570639609555</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9192899062794854</v>
+        <v>0.9126309011312771</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7255653914113492</v>
+        <v>0.7350778049522791</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9996950439097951</v>
+        <v>0.9996095854172761</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8474364558290982</v>
+        <v>0.8474982692249171</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7918598412467941</v>
+        <v>0.8009086031565845</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7993500964010283</v>
+        <v>0.790202442159383</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9205715687543132</v>
+        <v>0.9220243936191626</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8935322272314427</v>
+        <v>0.9086907778172088</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8013170803421892</v>
+        <v>0.7941782108577693</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9176748168117419</v>
+        <v>0.9134533277896252</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8930645884569391</v>
+        <v>0.8890547793371089</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9131946992770908</v>
+        <v>0.9006768100253202</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9225478615995026</v>
+        <v>0.91637850797145</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7402845075418364</v>
+        <v>0.7279492423131071</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9995790155958039</v>
+        <v>0.999612924977605</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8457242247649189</v>
+        <v>0.8586579646085024</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8223743721421743</v>
+        <v>0.8209503607003901</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7831699871465296</v>
+        <v>0.8040432197943445</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9224074253795722</v>
+        <v>0.9217116779531861</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9085730642746348</v>
+        <v>0.8978441915750984</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8321383169775278</v>
+        <v>0.8259877141684868</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9061671517411267</v>
+        <v>0.9067440624948773</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8858766160510819</v>
+        <v>0.8967401880598364</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8437958698763348</v>
+        <v>0.9013224285347327</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9255956468606406</v>
+        <v>0.9177232130594182</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.715291568776425</v>
+        <v>0.7296023375423402</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9996637890503067</v>
+        <v>0.9995764467032432</v>
       </c>
       <c r="D20" t="n">
-        <v>0.841858034600286</v>
+        <v>0.8462600993579015</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8107493452575527</v>
+        <v>0.8034437162195214</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7940817802056555</v>
+        <v>0.8065753534704371</v>
       </c>
       <c r="G20" t="n">
-        <v>0.922882339832068</v>
+        <v>0.9185971018087187</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9043097490703454</v>
+        <v>0.901402528625892</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8272800998548108</v>
+        <v>0.8130989294818638</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9163898538219546</v>
+        <v>0.9070203164980455</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8945625380745018</v>
+        <v>0.8928040601520725</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9004509008843711</v>
+        <v>0.9000082565777402</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9184326168599827</v>
+        <v>0.9215260773770777</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7340832109021083</v>
+        <v>0.745740269180831</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9995956848541976</v>
+        <v>0.9995961986327098</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8374702344724749</v>
+        <v>0.8538988086181187</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7894256668356743</v>
+        <v>0.8346818996033111</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8213488110539846</v>
+        <v>0.7570469151670951</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9224995327237175</v>
+        <v>0.9259955680641822</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9024715065900037</v>
+        <v>0.903171706703026</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8149731289474215</v>
+        <v>0.8038643773343417</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9116855257059661</v>
+        <v>0.9101341815802846</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8857958840053248</v>
+        <v>0.8871165051555697</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9021549667902093</v>
+        <v>0.8451295365307695</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9192675477625832</v>
+        <v>0.9234770176804763</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/All_Meta/metrics.xlsx
+++ b/models/Random Forests/All_Meta/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7414290844041961</v>
+        <v>0.7348303880504206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996381001246998</v>
+        <v>0.9995904328960735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.847372740482639</v>
+        <v>0.8441608213383647</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7940113874328273</v>
+        <v>0.800998671492052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8021328727506426</v>
+        <v>0.7978366002570694</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9290935199562917</v>
+        <v>0.9261923632677709</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9049152571085297</v>
+        <v>0.9097793023105301</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8196987444160772</v>
+        <v>0.8294435246672708</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9140721516591632</v>
+        <v>0.9077300452587138</v>
       </c>
       <c r="K2" t="n">
-        <v>0.888866874619255</v>
+        <v>0.8948604357979288</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8826166929653957</v>
+        <v>0.900338519687351</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9276219673067378</v>
+        <v>0.9327356795296279</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7214167792450062</v>
+        <v>0.7261472590367382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9995671986900246</v>
+        <v>0.9996615055902528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8596897728310154</v>
+        <v>0.8522850034995891</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8128775979085512</v>
+        <v>0.803632393853302</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7984150064267352</v>
+        <v>0.7936768958868895</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9301848796583851</v>
+        <v>0.9186157479296068</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9058856336919615</v>
+        <v>0.904928288128003</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8187633262260128</v>
+        <v>0.8116777856676829</v>
       </c>
       <c r="J3" t="n">
-        <v>0.921451654245482</v>
+        <v>0.8992075254347415</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8799934004196658</v>
+        <v>0.8955954852101713</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8875901343069978</v>
+        <v>0.901864839822392</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9306777377524835</v>
+        <v>0.920251641913659</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7489424569593118</v>
+        <v>0.7273005940195174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996459495186352</v>
+        <v>0.999613096237109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8434380800949453</v>
+        <v>0.8578035132832235</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7970473114990089</v>
+        <v>0.7925407889209736</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7877273457583549</v>
+        <v>0.7919786311053986</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9219767673826778</v>
+        <v>0.9185090382016334</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9076118094048343</v>
+        <v>0.8986360431917484</v>
       </c>
       <c r="I4" t="n">
-        <v>0.808272901891111</v>
+        <v>0.8095705724259665</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9092793402987345</v>
+        <v>0.9084209596874064</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8867350550529094</v>
+        <v>0.8913762663297308</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9011148673443177</v>
+        <v>0.9057293769035999</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9309041975879632</v>
+        <v>0.9185408959632655</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7375350051125528</v>
+        <v>0.7262085658796765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999605817708187</v>
+        <v>0.9996353314293843</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8513701652414717</v>
+        <v>0.8616107429779982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8148886064332085</v>
+        <v>0.8218619143714123</v>
       </c>
       <c r="F5" t="n">
-        <v>0.785345437017995</v>
+        <v>0.7302160989717223</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9203475906515989</v>
+        <v>0.9259360352685762</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9015115548221504</v>
+        <v>0.8971083733421829</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8232958045028831</v>
+        <v>0.8209104160521028</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9110149158533659</v>
+        <v>0.9151926289545491</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8904011360303243</v>
+        <v>0.8914323204575709</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9517403031081427</v>
+        <v>0.8818105298888114</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9247667846983421</v>
+        <v>0.9255860646391112</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.729535009491613</v>
+        <v>0.7331663451706629</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996196040982629</v>
+        <v>0.9995671986900246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8571511442135055</v>
+        <v>0.8518375696113935</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8154740506137458</v>
+        <v>0.8111919224232109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7887885604113111</v>
+        <v>0.7727016388174808</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9228414531573499</v>
+        <v>0.9201968491200828</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8982103632222931</v>
+        <v>0.8936052009404921</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8251877802771375</v>
+        <v>0.7997868764719505</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9029845491489961</v>
+        <v>0.912450393498959</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8940168035468513</v>
+        <v>0.895776691636019</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8981298851418297</v>
+        <v>0.9204708084107006</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9142851119746467</v>
+        <v>0.9199165835675122</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7325538241238048</v>
+        <v>0.7433460180110747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996126966315995</v>
+        <v>0.9995916602558526</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8443804966373514</v>
+        <v>0.8519792649341166</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7854121907492055</v>
+        <v>0.7882439081582501</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7353325835475578</v>
+        <v>0.7991982647814909</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9249343117379802</v>
+        <v>0.9285011124769956</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8978198670054152</v>
+        <v>0.8992971502463514</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8061253316242454</v>
+        <v>0.8369206244577024</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9091172762510227</v>
+        <v>0.9090645588653876</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8937506345750322</v>
+        <v>0.8851091328038627</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8789471028586107</v>
+        <v>0.8819492862647242</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9213612631667709</v>
+        <v>0.9197811548365624</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7325253602324405</v>
+        <v>0.7410278530124649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9995652292057281</v>
+        <v>0.9996107271473029</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8539030880070601</v>
+        <v>0.863482262408326</v>
       </c>
       <c r="E8" t="n">
-        <v>0.825567139344256</v>
+        <v>0.8375237108775374</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7930085154241644</v>
+        <v>0.811301413881748</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9253097053283874</v>
+        <v>0.9156058596445825</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8957144886258747</v>
+        <v>0.9074662963540511</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8164543278585505</v>
+        <v>0.8099419531454938</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9110156609754245</v>
+        <v>0.9166338812960951</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8856107996209472</v>
+        <v>0.8891767587599558</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8815570988220616</v>
+        <v>0.9183825822905582</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9285549562763232</v>
+        <v>0.9146875652788842</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7410694540844589</v>
+        <v>0.7281961118324396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9996073875869742</v>
+        <v>0.9995484743175822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8561122036760902</v>
+        <v>0.8508542611302153</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8086249748623935</v>
+        <v>0.7939927526047996</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7679153277634961</v>
+        <v>0.7763247107969151</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9141925735420979</v>
+        <v>0.9277948064038417</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9050555577515237</v>
+        <v>0.9017978028832433</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7966875530286506</v>
+        <v>0.8304856007095149</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9123218599438774</v>
+        <v>0.9143608864568106</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8952034588569753</v>
+        <v>0.8911791955280792</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9142726413709589</v>
+        <v>0.9665929690653555</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9186427869188623</v>
+        <v>0.9138024874169459</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7545241165793409</v>
+        <v>0.742704485690326</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999598453549513</v>
+        <v>0.9996148659186508</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8508899227047261</v>
+        <v>0.8517553102461884</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8017611465388523</v>
+        <v>0.8007230313274755</v>
       </c>
       <c r="F10" t="n">
-        <v>0.774769440874036</v>
+        <v>0.7480093187660668</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9231966280624569</v>
+        <v>0.9196702646940418</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8990743198133612</v>
+        <v>0.8988758139500538</v>
       </c>
       <c r="I10" t="n">
-        <v>0.821876102011029</v>
+        <v>0.8287098916029522</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9113153863234338</v>
+        <v>0.9116680153375925</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8937125600731031</v>
+        <v>0.8805010604453871</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8978592528714542</v>
+        <v>0.9049977523760597</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9235466484902571</v>
+        <v>0.9196144241819497</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7399319931949405</v>
+        <v>0.742978176953444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9996404121280044</v>
+        <v>0.9995793010283106</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8388191929643042</v>
+        <v>0.8550989394723228</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8392862550284919</v>
+        <v>0.8103797545016699</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7709190231362468</v>
+        <v>0.8261118251928021</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9191405351391765</v>
+        <v>0.9225136858034276</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9002992356438344</v>
+        <v>0.9028029288519367</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7957713524696097</v>
+        <v>0.811031592824521</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9142498632701023</v>
+        <v>0.9099130666094413</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8958101830960493</v>
+        <v>0.8861829747749373</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8992571373527577</v>
+        <v>0.875303887930718</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9206362084043749</v>
+        <v>0.9226701946276956</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7271708643607995</v>
+        <v>0.7175883858565114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9995907183285804</v>
+        <v>0.9996262832189206</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8468848901433311</v>
+        <v>0.8402204550987493</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8079044281786552</v>
+        <v>0.7773572863342265</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8267609254498715</v>
+        <v>0.8122228470437018</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9286338818438004</v>
+        <v>0.9229018845611917</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8977025878301571</v>
+        <v>0.9030531244258209</v>
       </c>
       <c r="I12" t="n">
-        <v>0.809305849558619</v>
+        <v>0.8325880095434754</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9158544836229624</v>
+        <v>0.9130476088288022</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8944930873626499</v>
+        <v>0.8872032304099637</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9345517136985799</v>
+        <v>0.9350046787273861</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9289037491399956</v>
+        <v>0.9243275995449083</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7382882034686536</v>
+        <v>0.740065554531342</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996306503362737</v>
+        <v>0.999569881755588</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8395134049481148</v>
+        <v>0.8526287810778734</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7871988048863624</v>
+        <v>0.7887866475245573</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7696842866323907</v>
+        <v>0.8096802699228792</v>
       </c>
       <c r="G13" t="n">
-        <v>0.928861679031516</v>
+        <v>0.9273616772342995</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9021381296751496</v>
+        <v>0.9010806624449059</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8090113393631853</v>
+        <v>0.8175996986675454</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9165252797560768</v>
+        <v>0.9137185912424313</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8867114347600461</v>
+        <v>0.890929596015433</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9191807181387839</v>
+        <v>0.9074277090748963</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9206732596609555</v>
+        <v>0.9235520784157906</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7318159524784387</v>
+        <v>0.7450133451859896</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9995762183572378</v>
+        <v>0.9996124968288448</v>
       </c>
       <c r="D14" t="n">
-        <v>0.852716746295</v>
+        <v>0.8439416215270381</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8235530250149272</v>
+        <v>0.7997866312190826</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7728574871465296</v>
+        <v>0.7708467223650386</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9277638044197147</v>
+        <v>0.9195204217707614</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9003743811894628</v>
+        <v>0.9030917831169243</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8441195490390703</v>
+        <v>0.8196574265093769</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9104489956499773</v>
+        <v>0.9168486627294417</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8873054674984771</v>
+        <v>0.8916050658829899</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9007146526732964</v>
+        <v>0.9353842519540567</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9256579313005822</v>
+        <v>0.9171572231744112</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7415911096319618</v>
+        <v>0.7210910866418958</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996524002932876</v>
+        <v>0.9996607349224846</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8423026155625208</v>
+        <v>0.8523962676120629</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8003270412318864</v>
+        <v>0.8105886198658137</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7969151670951157</v>
+        <v>0.8062026028277633</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9216876401828846</v>
+        <v>0.9221978250086267</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9014863615178358</v>
+        <v>0.8959533906495486</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8180931113440715</v>
+        <v>0.8173220038992574</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9211463404820345</v>
+        <v>0.9045956893198674</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8875384975519505</v>
+        <v>0.9029942775433767</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8808071263439873</v>
+        <v>0.8823930773182634</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9182808983524329</v>
+        <v>0.9266078488615364</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7422288102750269</v>
+        <v>0.7221675143797389</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9995590638635824</v>
+        <v>0.9996711817522314</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8466309797328139</v>
+        <v>0.8566913476461459</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8061612953068962</v>
+        <v>0.8008721099516969</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7665793701799486</v>
+        <v>0.776687821336761</v>
       </c>
       <c r="G16" t="n">
-        <v>0.91840232847366</v>
+        <v>0.913209945436508</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9004577797140907</v>
+        <v>0.8996316130794949</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8222417174412493</v>
+        <v>0.8084530671819554</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9042112063377101</v>
+        <v>0.9118105199312698</v>
       </c>
       <c r="K16" t="n">
-        <v>0.891543018546513</v>
+        <v>0.8816284887525101</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8986241330593373</v>
+        <v>0.9367236523430331</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9206304590714571</v>
+        <v>0.9201986202878627</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7325527293587523</v>
+        <v>0.7344373673965831</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996105273445484</v>
+        <v>0.9996444367263495</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8392842198959253</v>
+        <v>0.849472493989836</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7988090791987955</v>
+        <v>0.8136944245370992</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8103703406169666</v>
+        <v>0.8150465938303342</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9219044294197148</v>
+        <v>0.9246487789711295</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9012318222707941</v>
+        <v>0.8970849175071312</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8237776866007951</v>
+        <v>0.7997460390060256</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9064815932497903</v>
+        <v>0.9127460206756468</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8834105869678031</v>
+        <v>0.8825979783849642</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9012570639609555</v>
+        <v>0.9001470129536531</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9126309011312771</v>
+        <v>0.9181831596928323</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7350778049522791</v>
+        <v>0.7293729842638471</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9996095854172761</v>
+        <v>0.999656225088878</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8474982692249171</v>
+        <v>0.8467056312954565</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8009086031565845</v>
+        <v>0.8154313457995156</v>
       </c>
       <c r="F18" t="n">
-        <v>0.790202442159383</v>
+        <v>0.7954980719794345</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9220243936191626</v>
+        <v>0.9204545250316311</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9086907778172088</v>
+        <v>0.9004186866556715</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7941782108577693</v>
+        <v>0.8161934485174079</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9134533277896252</v>
+        <v>0.9144380065898596</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8890547793371089</v>
+        <v>0.8810189441799599</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9006768100253202</v>
+        <v>0.8822313860041833</v>
       </c>
       <c r="M18" t="n">
-        <v>0.91637850797145</v>
+        <v>0.9293164234805312</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7279492423131071</v>
+        <v>0.7356613147252469</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999612924977605</v>
+        <v>0.999608272427745</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8586579646085024</v>
+        <v>0.8485814301147258</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8209503607003901</v>
+        <v>0.8342804743495474</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8040432197943445</v>
+        <v>0.7811078084832904</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9217116779531861</v>
+        <v>0.9284685379284564</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8978441915750984</v>
+        <v>0.9089040521692522</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8259877141684868</v>
+        <v>0.8223704755691063</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9067440624948773</v>
+        <v>0.9096478031566351</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8967401880598364</v>
+        <v>0.8911291346088761</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9013224285347327</v>
+        <v>0.902354500752266</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9177232130594182</v>
+        <v>0.9233942911679387</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7296023375423402</v>
+        <v>0.7445502595687941</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9995764467032432</v>
+        <v>0.9996084722304998</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8462600993579015</v>
+        <v>0.8384735134353795</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8034437162195214</v>
+        <v>0.7949012004711506</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8065753534704371</v>
+        <v>0.7904346079691518</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9185971018087187</v>
+        <v>0.9295870805296755</v>
       </c>
       <c r="H20" t="n">
-        <v>0.901402528625892</v>
+        <v>0.898979627738523</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8130989294818638</v>
+        <v>0.816677252378422</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9070203164980455</v>
+        <v>0.9055388275653434</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8928040601520725</v>
+        <v>0.8872324913697797</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9000082565777402</v>
+        <v>0.9159010219808448</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9215260773770777</v>
+        <v>0.9162858798299987</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.745740269180831</v>
+        <v>0.7132547583963006</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9995961986327098</v>
+        <v>0.9995669988872699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8538988086181187</v>
+        <v>0.8561412084233592</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8346818996033111</v>
+        <v>0.8127805415125734</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7570469151670951</v>
+        <v>0.766060411311054</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9259955680641822</v>
+        <v>0.9225406440504946</v>
       </c>
       <c r="H21" t="n">
-        <v>0.903171706703026</v>
+        <v>0.9029262891696157</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8038643773343417</v>
+        <v>0.8296381031813826</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9101341815802846</v>
+        <v>0.9157212930550154</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8871165051555697</v>
+        <v>0.8889765150831435</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8451295365307695</v>
+        <v>0.8820593739679278</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9234770176804763</v>
+        <v>0.9203267026489732</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/All_Meta/metrics.xlsx
+++ b/models/Random Forests/All_Meta/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7348303880504206</v>
+        <v>0.731668159196355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9995904328960735</v>
+        <v>0.9995586357148223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8441608213383647</v>
+        <v>0.8422726598399318</v>
       </c>
       <c r="E2" t="n">
-        <v>0.800998671492052</v>
+        <v>0.795073572630407</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7978366002570694</v>
+        <v>0.7865857969151671</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9261923632677709</v>
+        <v>0.9266095421411318</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9097793023105301</v>
+        <v>0.9059051802211712</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8294435246672708</v>
+        <v>0.8224127543573576</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9077300452587138</v>
+        <v>0.9079750041354273</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8948604357979288</v>
+        <v>0.894833995171589</v>
       </c>
       <c r="L2" t="n">
-        <v>0.900338519687351</v>
+        <v>0.9202483395104766</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9327356795296279</v>
+        <v>0.9224101970168628</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7261472590367382</v>
+        <v>0.7366849200493082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9996615055902528</v>
+        <v>0.9996314495472927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8522850034995891</v>
+        <v>0.8474145833967317</v>
       </c>
       <c r="E3" t="n">
-        <v>0.803632393853302</v>
+        <v>0.792229432002677</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7936768958868895</v>
+        <v>0.8149509961439588</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9186157479296068</v>
+        <v>0.9228861589170693</v>
       </c>
       <c r="H3" t="n">
-        <v>0.904928288128003</v>
+        <v>0.9050199396316305</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8116777856676829</v>
+        <v>0.816671487089115</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8992075254347415</v>
+        <v>0.9111395375176407</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8955954852101713</v>
+        <v>0.9009650476072291</v>
       </c>
       <c r="L3" t="n">
-        <v>0.901864839822392</v>
+        <v>0.9344106638288503</v>
       </c>
       <c r="M3" t="n">
-        <v>0.920251641913659</v>
+        <v>0.9301762681591084</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7273005940195174</v>
+        <v>0.7242576945561713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999613096237109</v>
+        <v>0.9995537833622077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8578035132832235</v>
+        <v>0.8529454558595295</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7925407889209736</v>
+        <v>0.8252790759609941</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7919786311053986</v>
+        <v>0.7399831298200514</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9185090382016334</v>
+        <v>0.9260065760150679</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8986360431917484</v>
+        <v>0.8969650321279785</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8095705724259665</v>
+        <v>0.8196276391812906</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9084209596874064</v>
+        <v>0.9168585355967162</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8913762663297308</v>
+        <v>0.8910011619773923</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9057293769035999</v>
+        <v>0.9177014146269862</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9185408959632655</v>
+        <v>0.9267953409961294</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7262085658796765</v>
+        <v>0.7363778384520898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996353314293843</v>
+        <v>0.9995425658646927</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8616107429779982</v>
+        <v>0.8448407686923709</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8218619143714123</v>
+        <v>0.8083935924143827</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7302160989717223</v>
+        <v>0.833288881748072</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9259360352685762</v>
+        <v>0.9224022583822177</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8971083733421829</v>
+        <v>0.9061106359615307</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8209104160521028</v>
+        <v>0.8243940921158707</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9151926289545491</v>
+        <v>0.9080323785339278</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8914323204575709</v>
+        <v>0.888644773358002</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8818105298888114</v>
+        <v>0.8967904847528529</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9255860646391112</v>
+        <v>0.9245968599698864</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7331663451706629</v>
+        <v>0.7510060890832219</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9995671986900246</v>
+        <v>0.9996023925181062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8518375696113935</v>
+        <v>0.8474835291074526</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8111919224232109</v>
+        <v>0.8096770661947915</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7727016388174808</v>
+        <v>0.7901341580976864</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9201968491200828</v>
+        <v>0.9199982567000231</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8936052009404921</v>
+        <v>0.89908778520015</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7997868764719505</v>
+        <v>0.8146742947850075</v>
       </c>
       <c r="J6" t="n">
-        <v>0.912450393498959</v>
+        <v>0.9068452128143112</v>
       </c>
       <c r="K6" t="n">
-        <v>0.895776691636019</v>
+        <v>0.8866804110918075</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9204708084107006</v>
+        <v>0.9330081923599134</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9199165835675122</v>
+        <v>0.9243279189522927</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7433460180110747</v>
+        <v>0.738108114617522</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9995916602558526</v>
+        <v>0.9996455213698752</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8519792649341166</v>
+        <v>0.8491120743434465</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7882439081582501</v>
+        <v>0.8132231186782316</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7991982647814909</v>
+        <v>0.7428767673521851</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9285011124769956</v>
+        <v>0.9204826065389924</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8992971502463514</v>
+        <v>0.9045195484838626</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8369206244577024</v>
+        <v>0.8197842628741312</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9090645588653876</v>
+        <v>0.9099259199649494</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8851091328038627</v>
+        <v>0.8839510333701858</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8819492862647242</v>
+        <v>0.9349748633077686</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9197811548365624</v>
+        <v>0.923815908915235</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7410278530124649</v>
+        <v>0.7308098633952167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996107271473029</v>
+        <v>0.9996075017599768</v>
       </c>
       <c r="D8" t="n">
-        <v>0.863482262408326</v>
+        <v>0.8520596223486808</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8375237108775374</v>
+        <v>0.8039025988597037</v>
       </c>
       <c r="F8" t="n">
-        <v>0.811301413881748</v>
+        <v>0.7740311696658098</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9156058596445825</v>
+        <v>0.9223141947751322</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9074662963540511</v>
+        <v>0.9012370346785834</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8099419531454938</v>
+        <v>0.8154655807423963</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9166338812960951</v>
+        <v>0.9079625233409485</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8891767587599558</v>
+        <v>0.8965769612598994</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9183825822905582</v>
+        <v>0.8638146306557558</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9146875652788842</v>
+        <v>0.918579863664152</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7281961118324396</v>
+        <v>0.7319976834771489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9995484743175822</v>
+        <v>0.9995527558051834</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8508542611302153</v>
+        <v>0.8476489988131828</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7939927526047996</v>
+        <v>0.8262938976373367</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7763247107969151</v>
+        <v>0.7585258676092546</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9277948064038417</v>
+        <v>0.9211882386559698</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9017978028832433</v>
+        <v>0.8980314038881956</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8304856007095149</v>
+        <v>0.823055103674315</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9143608864568106</v>
+        <v>0.9094473653229135</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8911791955280792</v>
+        <v>0.8924247252995193</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9665929690653555</v>
+        <v>0.9188722432204321</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9138024874169459</v>
+        <v>0.9206553728474336</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.742704485690326</v>
+        <v>0.7241142803342975</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9996148659186508</v>
+        <v>0.999657623708161</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8517553102461884</v>
+        <v>0.8520130245579868</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8007230313274755</v>
+        <v>0.8162714659630983</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7480093187660668</v>
+        <v>0.7718942802056554</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9196702646940418</v>
+        <v>0.9230312841471129</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8988758139500538</v>
+        <v>0.9016323089359346</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8287098916029522</v>
+        <v>0.8062036434706656</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9116680153375925</v>
+        <v>0.9153854292871715</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8805010604453871</v>
+        <v>0.8909197248482661</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9049977523760597</v>
+        <v>0.9172966129683314</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9196144241819497</v>
+        <v>0.915284857087554</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.742978176953444</v>
+        <v>0.7390884767220107</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9995793010283106</v>
+        <v>0.9996481188056864</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8550989394723228</v>
+        <v>0.8396008946775813</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8103797545016699</v>
+        <v>0.7738617031766947</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8261118251928021</v>
+        <v>0.7744424807197944</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9225136858034276</v>
+        <v>0.921420753536922</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9028029288519367</v>
+        <v>0.8984953081814386</v>
       </c>
       <c r="I11" t="n">
-        <v>0.811031592824521</v>
+        <v>0.8191222154853749</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9099130666094413</v>
+        <v>0.9066390002846366</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8861829747749373</v>
+        <v>0.8964972868391959</v>
       </c>
       <c r="L11" t="n">
-        <v>0.875303887930718</v>
+        <v>0.8973478037503211</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9226701946276956</v>
+        <v>0.9231774135539885</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7175883858565114</v>
+        <v>0.7349294642876693</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9996262832189206</v>
+        <v>0.9996235430668557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8402204550987493</v>
+        <v>0.8521637541462523</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7773572863342265</v>
+        <v>0.8181411603752122</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8122228470437018</v>
+        <v>0.7971079691516709</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9229018845611917</v>
+        <v>0.9179222470238095</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9030531244258209</v>
+        <v>0.9057718294552296</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8325880095434754</v>
+        <v>0.8161982529251637</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9130476088288022</v>
+        <v>0.911099673487514</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8872032304099637</v>
+        <v>0.8883909433451411</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9350046787273861</v>
+        <v>0.9164010036328942</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9243275995449083</v>
+        <v>0.9239420748320397</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.740065554531342</v>
+        <v>0.7257498593226908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999569881755588</v>
+        <v>0.9996527998987971</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8526287810778734</v>
+        <v>0.8465415880527069</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7887866475245573</v>
+        <v>0.8177257590004279</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8096802699228792</v>
+        <v>0.8418396529562981</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9273616772342995</v>
+        <v>0.9212010438233265</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9010806624449059</v>
+        <v>0.9004412737560916</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8175996986675454</v>
+        <v>0.8243431653936587</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9137185912424313</v>
+        <v>0.9096494796812666</v>
       </c>
       <c r="K13" t="n">
-        <v>0.890929596015433</v>
+        <v>0.8911742599444958</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9074277090748963</v>
+        <v>0.9000827951267842</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9235520784157906</v>
+        <v>0.9201475151063722</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7450133451859896</v>
+        <v>0.7230282734022451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9996124968288448</v>
+        <v>0.999610213368791</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8439416215270381</v>
+        <v>0.8497192720854508</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7997866312190826</v>
+        <v>0.8159717558123194</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7708467223650386</v>
+        <v>0.7747340938303342</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9195204217707614</v>
+        <v>0.9263783751725327</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9030917831169243</v>
+        <v>0.9024658598148987</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8196574265093769</v>
+        <v>0.8099717404735801</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9168486627294417</v>
+        <v>0.9093583232369294</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8916050658829899</v>
+        <v>0.8930899714582253</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9353842519540567</v>
+        <v>0.8997961083996917</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9171572231744112</v>
+        <v>0.9169566353370611</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7210910866418958</v>
+        <v>0.7281046989505583</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996607349224846</v>
+        <v>0.9995925736398741</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8523962676120629</v>
+        <v>0.8461516881713886</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8105886198658137</v>
+        <v>0.8087919118634751</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8062026028277633</v>
+        <v>0.7711873393316195</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9221978250086267</v>
+        <v>0.9220129363641592</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8959533906495486</v>
+        <v>0.9014998269046246</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8173220038992574</v>
+        <v>0.8234471433471925</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9045956893198674</v>
+        <v>0.9083496142503104</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9029942775433767</v>
+        <v>0.8877567208546737</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8823930773182634</v>
+        <v>0.933484092326887</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9266078488615364</v>
+        <v>0.9089257754732181</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7221675143797389</v>
+        <v>0.73411058002842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996711817522314</v>
+        <v>0.9996167497731953</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8566913476461459</v>
+        <v>0.8469695269468367</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8008721099516969</v>
+        <v>0.8126966847864486</v>
       </c>
       <c r="F16" t="n">
-        <v>0.776687821336761</v>
+        <v>0.7471947300771209</v>
       </c>
       <c r="G16" t="n">
-        <v>0.913209945436508</v>
+        <v>0.9228805426155969</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8996316130794949</v>
+        <v>0.8929771058018876</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8084530671819554</v>
+        <v>0.8021520864101561</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9118105199312698</v>
+        <v>0.9072300683574976</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8816284887525101</v>
+        <v>0.8889832133751495</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9367236523430331</v>
+        <v>0.9144526806355731</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9201986202878627</v>
+        <v>0.9218981869798051</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7344373673965831</v>
+        <v>0.7346097928923473</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996444367263495</v>
+        <v>0.9996534278503119</v>
       </c>
       <c r="D17" t="n">
-        <v>0.849472493989836</v>
+        <v>0.8368050272359332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8136944245370992</v>
+        <v>0.7916284587987835</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8150465938303342</v>
+        <v>0.7716669344473007</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9246487789711295</v>
+        <v>0.9243765006757534</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8970849175071312</v>
+        <v>0.8958656484517629</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7997460390060256</v>
+        <v>0.8115221228563934</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9127460206756468</v>
+        <v>0.913619676289173</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8825979783849642</v>
+        <v>0.8881639065003046</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9001470129536531</v>
+        <v>0.9182702010935379</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9181831596928323</v>
+        <v>0.9221763908115439</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7293729842638471</v>
+        <v>0.7519295234049821</v>
       </c>
       <c r="C18" t="n">
-        <v>0.999656225088878</v>
+        <v>0.9995971120167314</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8467056312954565</v>
+        <v>0.8499446532363593</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8154313457995156</v>
+        <v>0.7967677890785931</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7954980719794345</v>
+        <v>0.7790705334190232</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9204545250316311</v>
+        <v>0.9230901429865424</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9004186866556715</v>
+        <v>0.9057831230054395</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8161934485174079</v>
+        <v>0.8284701516559352</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9144380065898596</v>
+        <v>0.9085241590925008</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8810189441799599</v>
+        <v>0.8861755713995623</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8822313860041833</v>
+        <v>0.9143162177534769</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9293164234805312</v>
+        <v>0.9256937049276255</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7356613147252469</v>
+        <v>0.7392258697360958</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999608272427745</v>
+        <v>0.9996205745687857</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8485814301147258</v>
+        <v>0.8595880184717446</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8342804743495474</v>
+        <v>0.8018131687670965</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7811078084832904</v>
+        <v>0.8034993573264781</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9284685379284564</v>
+        <v>0.9231069918909592</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9089040521692522</v>
+        <v>0.8994665534995021</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8223704755691063</v>
+        <v>0.818408760933631</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9096478031566351</v>
+        <v>0.9112041768562107</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8911291346088761</v>
+        <v>0.8879470933643194</v>
       </c>
       <c r="L19" t="n">
-        <v>0.902354500752266</v>
+        <v>0.8626415085684929</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9233942911679387</v>
+        <v>0.913453055738505</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7445502595687941</v>
+        <v>0.7401925472774288</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9996084722304998</v>
+        <v>0.9995836396024131</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8384735134353795</v>
+        <v>0.8471407025044886</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7949012004711506</v>
+        <v>0.812052230317157</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7904346079691518</v>
+        <v>0.7804145244215939</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9295870805296755</v>
+        <v>0.9192975669283413</v>
       </c>
       <c r="H20" t="n">
-        <v>0.898979627738523</v>
+        <v>0.8957718251115565</v>
       </c>
       <c r="I20" t="n">
-        <v>0.816677252378422</v>
+        <v>0.8289976756275277</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9055388275653434</v>
+        <v>0.911268257353237</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8872324913697797</v>
+        <v>0.891255697073622</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9159010219808448</v>
+        <v>0.9132050199992661</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9162858798299987</v>
+        <v>0.9146147403952604</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7132547583963006</v>
+        <v>0.7277182468870356</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9995669988872699</v>
+        <v>0.9996412398822739</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8561412084233592</v>
+        <v>0.8545045798971426</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8127805415125734</v>
+        <v>0.7890397706052669</v>
       </c>
       <c r="F21" t="n">
-        <v>0.766060411311054</v>
+        <v>0.792340938303342</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9225406440504946</v>
+        <v>0.9197428273090638</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9029262891696157</v>
+        <v>0.904342326619028</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8296381031813826</v>
+        <v>0.7935382637446899</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9157212930550154</v>
+        <v>0.9102003111629716</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8889765150831435</v>
+        <v>0.8939276105006657</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8820593739679278</v>
+        <v>0.9860830795200176</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9203267026489732</v>
+        <v>0.9195473486312435</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/All_Meta/metrics.xlsx
+++ b/models/Random Forests/All_Meta/metrics.xlsx
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.731668159196355</v>
+        <v>0.7441320593187497</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9995586357148223</v>
+        <v>0.9995917744288552</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8422726598399318</v>
+        <v>0.857921434222939</v>
       </c>
       <c r="E2" t="n">
-        <v>0.795073572630407</v>
+        <v>0.8166022341605902</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7865857969151671</v>
+        <v>0.7569633676092544</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9266095421411318</v>
+        <v>0.9277736891103059</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9059051802211712</v>
+        <v>0.9008891064586511</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8224127543573576</v>
+        <v>0.8280243026161923</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9079750041354273</v>
+        <v>0.9143653571891611</v>
       </c>
       <c r="K2" t="n">
-        <v>0.894833995171589</v>
+        <v>0.889498276776246</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9202483395104766</v>
+        <v>0.9017421379031961</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9224101970168628</v>
+        <v>0.9175424284798955</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7366849200493082</v>
+        <v>0.7371857750608142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9996314495472927</v>
+        <v>0.999636073553902</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8474145833967317</v>
+        <v>0.8485058275767626</v>
       </c>
       <c r="E3" t="n">
-        <v>0.792229432002677</v>
+        <v>0.807192422457763</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8149509961439588</v>
+        <v>0.7990014460154241</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9228861589170693</v>
+        <v>0.9274308700684379</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9050199396316305</v>
+        <v>0.9002636175239414</v>
       </c>
       <c r="I3" t="n">
-        <v>0.816671487089115</v>
+        <v>0.8174478793824608</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9111395375176407</v>
+        <v>0.9143765340200378</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9009650476072291</v>
+        <v>0.8967602829358544</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9344106638288503</v>
+        <v>0.9027237532567611</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9301762681591084</v>
+        <v>0.9214871096761912</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7242576945561713</v>
+        <v>0.7398099268915896</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9995537833622077</v>
+        <v>0.9995858945192163</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8529454558595295</v>
+        <v>0.8514400619275129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8252790759609941</v>
+        <v>0.8359218921183218</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7399831298200514</v>
+        <v>0.797036471722365</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9260065760150679</v>
+        <v>0.9218801669973544</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8969650321279785</v>
+        <v>0.9087481143028904</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8196276391812906</v>
+        <v>0.8182579025300972</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9168585355967162</v>
+        <v>0.9122665346310378</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8910011619773923</v>
+        <v>0.8890103590848583</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9177014146269862</v>
+        <v>0.8836648196396462</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9267953409961294</v>
+        <v>0.9283160395528551</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7363778384520898</v>
+        <v>0.730267954694243</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9995425658646927</v>
+        <v>0.9996031917291252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8448407686923709</v>
+        <v>0.8383204064088128</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8083935924143827</v>
+        <v>0.8225630497759552</v>
       </c>
       <c r="F5" t="n">
-        <v>0.833288881748072</v>
+        <v>0.8004305912596401</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9224022583822177</v>
+        <v>0.9237238864446745</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9061106359615307</v>
+        <v>0.9083146157217512</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8243940921158707</v>
+        <v>0.823188185769152</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9080323785339278</v>
+        <v>0.9084157438329973</v>
       </c>
       <c r="K5" t="n">
-        <v>0.888644773358002</v>
+        <v>0.8903186412761445</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8967904847528529</v>
+        <v>0.8816213166489302</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9245968599698864</v>
+        <v>0.9146501946149194</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7510060890832219</v>
+        <v>0.7320967597143977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9996023925181062</v>
+        <v>0.9995634309809356</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8474835291074526</v>
+        <v>0.8536349129667387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8096770661947915</v>
+        <v>0.8165106129227874</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7901341580976864</v>
+        <v>0.781844473007712</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9199982567000231</v>
+        <v>0.9253016178542675</v>
       </c>
       <c r="H6" t="n">
-        <v>0.89908778520015</v>
+        <v>0.902256929136013</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8146742947850075</v>
+        <v>0.8344343434440493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9068452128143112</v>
+        <v>0.9124027056872186</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8866804110918075</v>
+        <v>0.8976092033121996</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9330081923599134</v>
+        <v>0.8635933085024403</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9243279189522927</v>
+        <v>0.9162983367179868</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.738108114617522</v>
+        <v>0.7349064742215674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996455213698752</v>
+        <v>0.9996595075627055</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8491120743434465</v>
+        <v>0.8560133022427803</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8132231186782316</v>
+        <v>0.7940797151355956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7428767673521851</v>
+        <v>0.7870629820051414</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9204826065389924</v>
+        <v>0.9181520660800552</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9045195484838626</v>
+        <v>0.8903934890076837</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8197842628741312</v>
+        <v>0.8164504843323459</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9099259199649494</v>
+        <v>0.9114347921332993</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8839510333701858</v>
+        <v>0.8886183327316622</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9349748633077686</v>
+        <v>0.9172702377894389</v>
       </c>
       <c r="M7" t="n">
-        <v>0.923815908915235</v>
+        <v>0.9177874139436655</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7308098633952167</v>
+        <v>0.7342452361298741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996075017599768</v>
+        <v>0.9995815559451139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8520596223486808</v>
+        <v>0.8422279639998783</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8039025988597037</v>
+        <v>0.7712062401827455</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7740311696658098</v>
+        <v>0.7904330012853471</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9223141947751322</v>
+        <v>0.9188601693696803</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9012370346785834</v>
+        <v>0.902832900196725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8154655807423963</v>
+        <v>0.812349441871951</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9079625233409485</v>
+        <v>0.9139270391382812</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8965769612598994</v>
+        <v>0.8924825421357822</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8638146306557558</v>
+        <v>0.9840980606216285</v>
       </c>
       <c r="M8" t="n">
-        <v>0.918579863664152</v>
+        <v>0.9186996414332703</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7319976834771489</v>
+        <v>0.7358446878715359</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9995527558051834</v>
+        <v>0.9996131533236104</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8476489988131828</v>
+        <v>0.8533752967043</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8262938976373367</v>
+        <v>0.7925066250695895</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7585258676092546</v>
+        <v>0.7904105077120822</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9211882386559698</v>
+        <v>0.922302288216011</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8980314038881956</v>
+        <v>0.9000720615376863</v>
       </c>
       <c r="I9" t="n">
-        <v>0.823055103674315</v>
+        <v>0.8150206925842044</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9094473653229135</v>
+        <v>0.9155828866326593</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8924247252995193</v>
+        <v>0.8943629994810586</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9188722432204321</v>
+        <v>0.8998672067080108</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9206553728474336</v>
+        <v>0.9322795657848255</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7241142803342975</v>
+        <v>0.7365376741497507</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999657623708161</v>
+        <v>0.9995925450966234</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8520130245579868</v>
+        <v>0.8497639679255045</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8162714659630983</v>
+        <v>0.8119039281441031</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7718942802056554</v>
+        <v>0.7905004820051413</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9230312841471129</v>
+        <v>0.9241075921612607</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9016323089359346</v>
+        <v>0.9072890744892167</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8062036434706656</v>
+        <v>0.8147184953363613</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9153854292871715</v>
+        <v>0.9079098059553137</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8909197248482661</v>
+        <v>0.8899812588840506</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9172966129683314</v>
+        <v>0.9361674800924736</v>
       </c>
       <c r="M10" t="n">
-        <v>0.915284857087554</v>
+        <v>0.9160664469569739</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7390884767220107</v>
+        <v>0.749696202697939</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9996481188056864</v>
+        <v>0.9995657429842402</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8396008946775813</v>
+        <v>0.8437148139131494</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7738617031766947</v>
+        <v>0.8132301067387421</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7744424807197944</v>
+        <v>0.80188544344473</v>
       </c>
       <c r="G11" t="n">
-        <v>0.921420753536922</v>
+        <v>0.91993400621118</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8984953081814386</v>
+        <v>0.9034705514162763</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8191222154853749</v>
+        <v>0.8160709361196337</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9066390002846366</v>
+        <v>0.9072628537280691</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8964972868391959</v>
+        <v>0.8896445815753256</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8973478037503211</v>
+        <v>0.900788044475432</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9231774135539885</v>
+        <v>0.917396139897879</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7349294642876693</v>
+        <v>0.711999062881115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9996235430668557</v>
+        <v>0.9995603768531134</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8521637541462523</v>
+        <v>0.8530790678920299</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8181411603752122</v>
+        <v>0.7960006553247857</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7971079691516709</v>
+        <v>0.7591171272493573</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9179222470238095</v>
+        <v>0.9226976758396594</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9057718294552296</v>
+        <v>0.9060389653544285</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8161982529251637</v>
+        <v>0.822826894305912</v>
       </c>
       <c r="J12" t="n">
-        <v>0.911099673487514</v>
+        <v>0.9076808672028565</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8883909433451411</v>
+        <v>0.8883380620924618</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9164010036328942</v>
+        <v>0.9163952698983524</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9239420748320397</v>
+        <v>0.9175938530687704</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7257498593226908</v>
+        <v>0.7319434926070516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996527998987971</v>
+        <v>0.9996537132828186</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8465415880527069</v>
+        <v>0.8516430951583944</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8177257590004279</v>
+        <v>0.8135189465731717</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8418396529562981</v>
+        <v>0.7748481683804627</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9212010438233265</v>
+        <v>0.919758552953186</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9004412737560916</v>
+        <v>0.902291244153959</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8243431653936587</v>
+        <v>0.8046566241732815</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9096494796812666</v>
+        <v>0.9172728234612112</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8911742599444958</v>
+        <v>0.8915909642156088</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9000827951267842</v>
+        <v>0.8830272283585923</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9201475151063722</v>
+        <v>0.9264139685792567</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7230282734022451</v>
+        <v>0.7476632239954983</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999610213368791</v>
+        <v>0.9996385568167105</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8497192720854508</v>
+        <v>0.842816617723137</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8159717558123194</v>
+        <v>0.7981576366689934</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7747340938303342</v>
+        <v>0.7925401670951158</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9263783751725327</v>
+        <v>0.9224292166292845</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9024658598148987</v>
+        <v>0.9003070542555182</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8099717404735801</v>
+        <v>0.8133871939472149</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9093583232369294</v>
+        <v>0.9117086244897776</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8930899714582253</v>
+        <v>0.8946735887051285</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8997961083996917</v>
+        <v>0.9193630508972148</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9169566353370611</v>
+        <v>0.9198859204586178</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7281046989505583</v>
+        <v>0.722258106187831</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9995925736398741</v>
+        <v>0.999596969300478</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8461516881713886</v>
+        <v>0.8443286684823954</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8087919118634751</v>
+        <v>0.8020973498945191</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7711873393316195</v>
+        <v>0.812538560411311</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9220129363641592</v>
+        <v>0.9209465130406027</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9014998269046246</v>
+        <v>0.909991273560626</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8234471433471925</v>
+        <v>0.8273204568799599</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9083496142503104</v>
+        <v>0.9126310855981318</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8877567208546737</v>
+        <v>0.8908037386340563</v>
       </c>
       <c r="L15" t="n">
-        <v>0.933484092326887</v>
+        <v>0.8778290246229495</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9089257754732181</v>
+        <v>0.9230739255614702</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.73411058002842</v>
+        <v>0.7306199216586128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996167497731953</v>
+        <v>0.9996075017599769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8469695269468367</v>
+        <v>0.8425089772070236</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8126966847864486</v>
+        <v>0.8149491696242986</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7471947300771209</v>
+        <v>0.7965223329048843</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9228805426155969</v>
+        <v>0.9182062072262479</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8929771058018876</v>
+        <v>0.8973029698996482</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8021520864101561</v>
+        <v>0.8196406110822313</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9072300683574976</v>
+        <v>0.9169133020680118</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8889832133751495</v>
+        <v>0.8882880011732588</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9144526806355731</v>
+        <v>0.9014588914168287</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9218981869798051</v>
+        <v>0.9215698361887288</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7346097928923473</v>
+        <v>0.7289224884447549</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996534278503119</v>
+        <v>0.9996666719186248</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8368050272359332</v>
+        <v>0.8550414054654454</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7916284587987835</v>
+        <v>0.8197554023531129</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7716669344473007</v>
+        <v>0.799146850899743</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9243765006757534</v>
+        <v>0.9170142034017714</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8958656484517629</v>
+        <v>0.8944860978568751</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8115221228563934</v>
+        <v>0.8222777504994181</v>
       </c>
       <c r="J17" t="n">
-        <v>0.913619676289173</v>
+        <v>0.9130971594456888</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8881639065003046</v>
+        <v>0.8939878951287201</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9182702010935379</v>
+        <v>0.9196508843712158</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9221763908115439</v>
+        <v>0.9264797665004258</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7519295234049821</v>
+        <v>0.7318367530144356</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9995971120167314</v>
+        <v>0.9995940864321599</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8499446532363593</v>
+        <v>0.8578776893582059</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7967677890785931</v>
+        <v>0.8392140450698844</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7790705334190232</v>
+        <v>0.7947188303341902</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9230901429865424</v>
+        <v>0.9273749317057741</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9057831230054395</v>
+        <v>0.9025531676453684</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8284701516559352</v>
+        <v>0.8131753195651819</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9085241590925008</v>
+        <v>0.9112190792973798</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8861755713995623</v>
+        <v>0.8927416602739108</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9143162177534769</v>
+        <v>0.8818116766357197</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9256937049276255</v>
+        <v>0.9197124822489346</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7392258697360958</v>
+        <v>0.7467217260503722</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9996205745687857</v>
+        <v>0.9995630599186769</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8595880184717446</v>
+        <v>0.8568192538267247</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8018131687670965</v>
+        <v>0.8210559580592137</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8034993573264781</v>
+        <v>0.8238174807197942</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9231069918909592</v>
+        <v>0.9207966701173222</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8994665534995021</v>
+        <v>0.8966496814567289</v>
       </c>
       <c r="I19" t="n">
-        <v>0.818408760933631</v>
+        <v>0.815009642446366</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9112041768562107</v>
+        <v>0.9098640748340987</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8879470933643194</v>
+        <v>0.8995161012838157</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8626415085684929</v>
+        <v>0.9012008733624455</v>
       </c>
       <c r="M19" t="n">
-        <v>0.913453055738505</v>
+        <v>0.9254161399106554</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7401925472774288</v>
+        <v>0.7368214919896041</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9995836396024131</v>
+        <v>0.9995937724564025</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8471407025044886</v>
+        <v>0.8428689213657525</v>
       </c>
       <c r="E20" t="n">
-        <v>0.812052230317157</v>
+        <v>0.8125134423108428</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7804145244215939</v>
+        <v>0.7949558161953727</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9192975669283413</v>
+        <v>0.9250841546612606</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8957718251115565</v>
+        <v>0.902677396697679</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8289976756275277</v>
+        <v>0.8041209327085042</v>
       </c>
       <c r="J20" t="n">
-        <v>0.911268257353237</v>
+        <v>0.9113880357241321</v>
       </c>
       <c r="K20" t="n">
-        <v>0.891255697073622</v>
+        <v>0.8884343059723382</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9132050199992661</v>
+        <v>0.8820559337272027</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9146147403952604</v>
+        <v>0.9216573538120314</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7277182468870356</v>
+        <v>0.7334247097230463</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9996412398822739</v>
+        <v>0.9995777596927741</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8545045798971426</v>
+        <v>0.8469409976872281</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7890397706052669</v>
+        <v>0.8061279079066799</v>
       </c>
       <c r="F21" t="n">
-        <v>0.792340938303342</v>
+        <v>0.7292424485861182</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9197428273090638</v>
+        <v>0.9250412461180124</v>
       </c>
       <c r="H21" t="n">
-        <v>0.904342326619028</v>
+        <v>0.90579745712686</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7935382637446899</v>
+        <v>0.8140425151651132</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9102003111629716</v>
+        <v>0.9148016261543803</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8939276105006657</v>
+        <v>0.8970500722005369</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9860830795200176</v>
+        <v>0.8840891159957432</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9195473486312435</v>
+        <v>0.9177059650606652</v>
       </c>
     </row>
   </sheetData>

--- a/models/Random Forests/All_Meta/metrics.xlsx
+++ b/models/Random Forests/All_Meta/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,40 +500,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7441320593187497</v>
+        <v>0.7122109755583945</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9995917744288552</v>
+        <v>0.9992362373441056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.857921434222939</v>
+        <v>0.8352818402292937</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8166022341605902</v>
+        <v>0.8280331880360975</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7569633676092544</v>
+        <v>0.8627992448586118</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9277736891103059</v>
+        <v>0.9334746339964326</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9008891064586511</v>
+        <v>0.9017546938540469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8280243026161923</v>
+        <v>0.7711407884151247</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9143653571891611</v>
+        <v>0.9003998754282154</v>
       </c>
       <c r="K2" t="n">
-        <v>0.889498276776246</v>
+        <v>0.9117952158084013</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9017421379031961</v>
+        <v>0.8898527759948653</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9175424284798955</v>
+        <v>0.9165718890295843</v>
       </c>
     </row>
     <row r="3">
@@ -541,40 +541,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7371857750608142</v>
+        <v>0.7873222332973003</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999636073553902</v>
+        <v>0.9983299635199182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8485058275767626</v>
+        <v>0.847657823179246</v>
       </c>
       <c r="E3" t="n">
-        <v>0.807192422457763</v>
+        <v>0.8885904436328119</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7990014460154241</v>
+        <v>0.8740460314910026</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9274308700684379</v>
+        <v>0.92733629241</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9002636175239414</v>
+        <v>0.8979924810586845</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8174478793824608</v>
+        <v>0.9315076427996782</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9143765340200378</v>
+        <v>0.9321432575521644</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8967602829358544</v>
+        <v>0.8475291704289434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9027237532567611</v>
+        <v>0.8632561777920411</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9214871096761912</v>
+        <v>0.9322113502935421</v>
       </c>
     </row>
     <row r="4">
@@ -582,40 +582,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7398099268915896</v>
+        <v>0.7758519399046968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9995858945192163</v>
+        <v>0.9986755661217104</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8514400619275129</v>
+        <v>0.8749996325420739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8359218921183218</v>
+        <v>0.7982593025128866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.797036471722365</v>
+        <v>0.8917095115681234</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9218801669973544</v>
+        <v>0.9119357874026974</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9087481143028904</v>
+        <v>0.9091909385113268</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8182579025300972</v>
+        <v>0.7957586484312148</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9122665346310378</v>
+        <v>0.9061509163549979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8890103590848583</v>
+        <v>0.8805962952897757</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8836648196396462</v>
+        <v>0.993687476595517</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9283160395528551</v>
+        <v>0.8969863013698629</v>
       </c>
     </row>
     <row r="5">
@@ -623,40 +623,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.730267954694243</v>
+        <v>0.7564580463185958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996031917291252</v>
+        <v>0.9981659281313228</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8383204064088128</v>
+        <v>0.8756814821659581</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8225630497759552</v>
+        <v>0.8750251691365979</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8004305912596401</v>
+        <v>0.7838156732005142</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9237238864446745</v>
+        <v>0.9326270449008005</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9083146157217512</v>
+        <v>0.8741316073354909</v>
       </c>
       <c r="I5" t="n">
-        <v>0.823188185769152</v>
+        <v>0.8564891391794047</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9084157438329973</v>
+        <v>0.9134125511676532</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8903186412761445</v>
+        <v>0.8935158804604151</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8816213166489302</v>
+        <v>0.9856274184632393</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9146501946149194</v>
+        <v>0.9159203407390353</v>
       </c>
     </row>
     <row r="6">
@@ -664,40 +664,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7320967597143977</v>
+        <v>0.709335224201237</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9995634309809356</v>
+        <v>0.9984259435120696</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8536349129667387</v>
+        <v>0.8306627072797836</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8165106129227874</v>
+        <v>0.7987664200199535</v>
       </c>
       <c r="F6" t="n">
-        <v>0.781844473007712</v>
+        <v>0.8635204081632654</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9253016178542675</v>
+        <v>0.9219552074223354</v>
       </c>
       <c r="H6" t="n">
-        <v>0.902256929136013</v>
+        <v>0.89238659426252</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8344343434440493</v>
+        <v>0.8425490827164467</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9124027056872186</v>
+        <v>0.9294186539084498</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8976092033121996</v>
+        <v>0.9220537725663048</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8635933085024403</v>
+        <v>0.9975124378109452</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9162983367179868</v>
+        <v>0.8747029566178502</v>
       </c>
     </row>
     <row r="7">
@@ -705,40 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7349064742215674</v>
+        <v>0.7775090901433365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996595075627055</v>
+        <v>0.9984061662030859</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8560133022427803</v>
+        <v>0.8313221136179907</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7940797151355956</v>
+        <v>0.8385434255165498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7870629820051414</v>
+        <v>0.8556193766066837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9181520660800552</v>
+        <v>0.9217286203542654</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8903934890076837</v>
+        <v>0.8911864955207182</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8164504843323459</v>
+        <v>0.8710667739340305</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9114347921332993</v>
+        <v>0.9074182497664278</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8886183327316622</v>
+        <v>0.8680560028965484</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9172702377894389</v>
+        <v>0.969983552631579</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9177874139436655</v>
+        <v>0.9097087602164153</v>
       </c>
     </row>
     <row r="8">
@@ -746,40 +746,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7342452361298741</v>
+        <v>0.7369473964987154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9995815559451139</v>
+        <v>0.998723127705282</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8422279639998783</v>
+        <v>0.8327213934004557</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7712062401827455</v>
+        <v>0.8296541440884461</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7904330012853471</v>
+        <v>0.8160748714652956</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9188601693696803</v>
+        <v>0.9464641568373997</v>
       </c>
       <c r="H8" t="n">
-        <v>0.902832900196725</v>
+        <v>0.8983215375713985</v>
       </c>
       <c r="I8" t="n">
-        <v>0.812349441871951</v>
+        <v>0.8403218020917136</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9139270391382812</v>
+        <v>0.9293154780442231</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8924825421357822</v>
+        <v>0.909058831780207</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9840980606216285</v>
+        <v>0.9654204107830552</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9186996414332703</v>
+        <v>0.8797927938298608</v>
       </c>
     </row>
     <row r="9">
@@ -787,40 +787,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7358446878715359</v>
+        <v>0.7188898928440139</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9996131533236104</v>
+        <v>0.9991251445941574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8533752967043</v>
+        <v>0.850103623135151</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7925066250695895</v>
+        <v>0.7946953527706184</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7904105077120822</v>
+        <v>0.8459290649100257</v>
       </c>
       <c r="G9" t="n">
-        <v>0.922302288216011</v>
+        <v>0.9116839173866348</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9000720615376863</v>
+        <v>0.8875728155339805</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8150206925842044</v>
+        <v>0.8607691069991954</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9155828866326593</v>
+        <v>0.9229491219287139</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8943629994810586</v>
+        <v>0.9323381928798731</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8998672067080108</v>
+        <v>0.9779061680843096</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9322795657848255</v>
+        <v>0.9637274087717278</v>
       </c>
     </row>
     <row r="10">
@@ -828,40 +828,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7365376741497507</v>
+        <v>0.807600207509508</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9995925450966234</v>
+        <v>0.9982799717824414</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8497639679255045</v>
+        <v>0.8594587414525966</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8119039281441031</v>
+        <v>0.799890262564433</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7905004820051413</v>
+        <v>0.8768527072622108</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9241075921612607</v>
+        <v>0.9257589130326688</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9072890744892167</v>
+        <v>0.8879153182308521</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8147184953363613</v>
+        <v>0.8078197908286404</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9079098059553137</v>
+        <v>0.9119818201450856</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8899812588840506</v>
+        <v>0.8824942360459714</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9361674800924736</v>
+        <v>0.9980384814279855</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9160664469569739</v>
+        <v>0.886692759295499</v>
       </c>
     </row>
     <row r="11">
@@ -869,40 +869,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.749696202697939</v>
+        <v>0.7185742668791553</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9995657429842402</v>
+        <v>0.9986318753222032</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8437148139131494</v>
+        <v>0.8592408561684112</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8132301067387421</v>
+        <v>0.8245500083139341</v>
       </c>
       <c r="F11" t="n">
-        <v>0.80188544344473</v>
+        <v>0.8734131447854733</v>
       </c>
       <c r="G11" t="n">
-        <v>0.91993400621118</v>
+        <v>0.9255469155988187</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9034705514162763</v>
+        <v>0.9035626131314793</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8160709361196337</v>
+        <v>0.8505374959768265</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9072628537280691</v>
+        <v>0.9089581620193866</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8896445815753256</v>
+        <v>0.8842081409763662</v>
       </c>
       <c r="L11" t="n">
-        <v>0.900788044475432</v>
+        <v>0.9824967902423366</v>
       </c>
       <c r="M11" t="n">
-        <v>0.917396139897879</v>
+        <v>0.9002463848208528</v>
       </c>
     </row>
     <row r="12">
@@ -910,40 +910,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.711999062881115</v>
+        <v>0.7350451348429756</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9995603768531134</v>
+        <v>0.99847525200696</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8530790678920299</v>
+        <v>0.8704754905563312</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7960006553247857</v>
+        <v>0.8829950280290317</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7591171272493573</v>
+        <v>0.8620862789203084</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9226976758396594</v>
+        <v>0.905737250466514</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9060389653544285</v>
+        <v>0.9006276752980018</v>
       </c>
       <c r="I12" t="n">
-        <v>0.822826894305912</v>
+        <v>0.8215543041029767</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9076808672028565</v>
+        <v>0.9252046091560262</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8883380620924618</v>
+        <v>0.9134100859413005</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9163952698983524</v>
+        <v>0.9909740051347882</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9175938530687704</v>
+        <v>0.8974099228732589</v>
       </c>
     </row>
     <row r="13">
@@ -951,40 +951,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7319434926070516</v>
+        <v>0.7567632070306468</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996537132828186</v>
+        <v>0.9991334765504034</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8516430951583944</v>
+        <v>0.8759756007937092</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8135189465731717</v>
+        <v>0.7952088279760389</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7748481683804627</v>
+        <v>0.8191476542416453</v>
       </c>
       <c r="G13" t="n">
-        <v>0.919758552953186</v>
+        <v>0.9246322539356669</v>
       </c>
       <c r="H13" t="n">
-        <v>0.902291244153959</v>
+        <v>0.9045736113129629</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8046566241732815</v>
+        <v>0.7963893805309735</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9172728234612112</v>
+        <v>0.9154780442229835</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8915909642156088</v>
+        <v>0.9165716965749401</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8830272283585923</v>
+        <v>0.9959683889602053</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9264139685792567</v>
+        <v>0.8896281800391389</v>
       </c>
     </row>
     <row r="14">
@@ -992,40 +992,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7476632239954983</v>
+        <v>0.7428290691961755</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9996385568167105</v>
+        <v>0.9991070920222908</v>
       </c>
       <c r="D14" t="n">
-        <v>0.842816617723137</v>
+        <v>0.8674829132064379</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7981576366689934</v>
+        <v>0.7929284793814433</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7925401670951158</v>
+        <v>0.9028458386889461</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9224292166292845</v>
+        <v>0.9368851757862622</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9003070542555182</v>
+        <v>0.8929584681769148</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8133871939472149</v>
+        <v>0.8496991150442478</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9117086244897776</v>
+        <v>0.9083865869580154</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8946735887051285</v>
+        <v>0.867847656284244</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9193630508972148</v>
+        <v>0.9828367124948734</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9198859204586178</v>
+        <v>0.8302037527339703</v>
       </c>
     </row>
     <row r="15">
@@ -1033,40 +1033,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.722258106187831</v>
+        <v>0.7416472269652421</v>
       </c>
       <c r="C15" t="n">
-        <v>0.999596969300478</v>
+        <v>0.9987220862107513</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8443286684823954</v>
+        <v>0.8600997967104047</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8020973498945191</v>
+        <v>0.7968045264175257</v>
       </c>
       <c r="F15" t="n">
-        <v>0.812538560411311</v>
+        <v>0.669595517352185</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9209465130406027</v>
+        <v>0.9068715503953061</v>
       </c>
       <c r="H15" t="n">
-        <v>0.909991273560626</v>
+        <v>0.8784223300970874</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8273204568799599</v>
+        <v>0.8073499597747384</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9126310855981318</v>
+        <v>0.914627322790588</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8908037386340563</v>
+        <v>0.888933208265028</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8778290246229495</v>
+        <v>0.9095294138625867</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9230739255614702</v>
+        <v>0.914142972257396</v>
       </c>
     </row>
     <row r="16">
@@ -1074,40 +1074,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7306199216586128</v>
+        <v>0.7989314724197727</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996075017599769</v>
+        <v>0.9976128259340503</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8425089772070236</v>
+        <v>0.8298394684229096</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8149491696242986</v>
+        <v>0.8449763052876621</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7965223329048843</v>
+        <v>0.8137855535915153</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9182062072262479</v>
+        <v>0.936746644359101</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8973029698996482</v>
+        <v>0.9094591629641818</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8196406110822313</v>
+        <v>0.8883360154489862</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9169133020680118</v>
+        <v>0.9189803393885027</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8882880011732588</v>
+        <v>0.8887358426012735</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9014588914168287</v>
+        <v>0.9569290643556412</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9215698361887288</v>
+        <v>0.963574191765681</v>
       </c>
     </row>
     <row r="17">
@@ -1115,40 +1115,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7289224884447549</v>
+        <v>0.7529727225505749</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996666719186248</v>
+        <v>0.9987134070896616</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8550414054654454</v>
+        <v>0.8321422797089733</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8197554023531129</v>
+        <v>0.7816125395497691</v>
       </c>
       <c r="F17" t="n">
-        <v>0.799146850899743</v>
+        <v>0.8367207583547558</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9170142034017714</v>
+        <v>0.9422631550600526</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8944860978568751</v>
+        <v>0.9142204514106926</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8222777504994181</v>
+        <v>0.8159356395816573</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9130971594456888</v>
+        <v>0.8909648084708814</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8939878951287201</v>
+        <v>0.9150138496771372</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9196508843712158</v>
+        <v>0.9476091142490373</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9264797665004258</v>
+        <v>0.901682974559687</v>
       </c>
     </row>
     <row r="18">
@@ -1156,40 +1156,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7318367530144356</v>
+        <v>0.7417802642108071</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9995940864321599</v>
+        <v>0.9985984955264338</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8578776893582059</v>
+        <v>0.8444330124200778</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8392140450698844</v>
+        <v>0.8645566529335668</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7947188303341902</v>
+        <v>0.864797557840617</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9273749317057741</v>
+        <v>0.928608315195524</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9025531676453684</v>
+        <v>0.9222823359721838</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8131753195651819</v>
+        <v>0.8799935639581657</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9112190792973798</v>
+        <v>0.9085668016194333</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8927416602739108</v>
+        <v>0.8847910511874185</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8818116766357197</v>
+        <v>0.9894897304236199</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9197124822489346</v>
+        <v>0.9160884079659262</v>
       </c>
     </row>
     <row r="19">
@@ -1197,40 +1197,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7467217260503722</v>
+        <v>0.7598317936173649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9995630599186769</v>
+        <v>0.998887683841143</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8568192538267247</v>
+        <v>0.8262453149114426</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8210559580592137</v>
+        <v>0.7768151981314433</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8238174807197942</v>
+        <v>0.8413600578406171</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9207966701173222</v>
+        <v>0.9555663273549847</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8966496814567289</v>
+        <v>0.918077130528587</v>
       </c>
       <c r="I19" t="n">
-        <v>0.815009642446366</v>
+        <v>0.8762284794851167</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9098640748340987</v>
+        <v>0.9118713863611823</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8995161012838157</v>
+        <v>0.8792309175864154</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9012008733624455</v>
+        <v>0.9899427593216712</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9254161399106554</v>
+        <v>0.9014895821342235</v>
       </c>
     </row>
     <row r="20">
@@ -1238,40 +1238,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7368214919896041</v>
+        <v>0.8007359029240289</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9995937724564025</v>
+        <v>0.997890799992779</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8428689213657525</v>
+        <v>0.8545035575679172</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8125134423108428</v>
+        <v>0.8172317976804124</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7949558161953727</v>
+        <v>0.7570292416452442</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9250841546612606</v>
+        <v>0.8767527721147631</v>
       </c>
       <c r="H20" t="n">
-        <v>0.902677396697679</v>
+        <v>0.8848004314994606</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8041209327085042</v>
+        <v>0.8545261464199518</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9113880357241321</v>
+        <v>0.9359361349157267</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8884343059723382</v>
+        <v>0.9102160058209361</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8820559337272027</v>
+        <v>0.9643716899374097</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9216573538120314</v>
+        <v>0.8720110509957407</v>
       </c>
     </row>
     <row r="21">
@@ -1279,40 +1279,1270 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7334247097230463</v>
+        <v>0.7183180168352769</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9995777596927741</v>
+        <v>0.9987327540805457</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8469409976872281</v>
+        <v>0.8748088909796543</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8061279079066799</v>
+        <v>0.8893623212504158</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7292424485861182</v>
+        <v>0.7964657319620763</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9250412461180124</v>
+        <v>0.9144929464998669</v>
       </c>
       <c r="H21" t="n">
-        <v>0.90579745712686</v>
+        <v>0.8552739838736219</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8140425151651132</v>
+        <v>0.802806565819118</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9148016261543803</v>
+        <v>0.9413869577134882</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8970500722005369</v>
+        <v>0.8671837162699558</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8840891159957432</v>
+        <v>0.9862582250040122</v>
       </c>
       <c r="M21" t="n">
-        <v>0.9177059650606652</v>
+        <v>0.9288063000828958</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7977214976625345</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9984238716101089</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8435187771000221</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8206193922453877</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8858651992287918</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9013873444029413</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8902706215603312</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.7467160096540628</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9117109934599813</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9075969977187459</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.9696726572528883</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8817704616093013</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7743679016158694</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9989105967208197</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8776276916293085</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7928085661292921</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.917476703084833</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9464815818070644</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8698992812857334</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9051391794046661</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.9214948614138898</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9188290626013623</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.902108071245186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9154069298952459</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7311927330445149</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9985832202733159</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.837374880576174</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7909451514175257</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8032314428020566</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8878053725933741</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8895199568500539</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.760946098149638</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9136334187354596</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9125719946349204</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9298935430375006</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9033682514101531</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.674783815632612</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9990314100863885</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8605733690630197</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8275561775128866</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8232246143958869</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9449617124956492</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9279180151024812</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8957940466613032</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9229196729196729</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.856161951766882</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9797428627471958</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9286220789685737</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.762733521016014</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.997806756650519</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8472950723274139</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.846763801130695</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6869827655471638</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9166840944522606</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8973616367725303</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.908850981654329</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9164785328050634</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8686277820482627</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9748435243139144</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.9143041355807313</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7508212716373489</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9990227309652988</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8629940471815978</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8670348453597535</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8245250241002571</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9291991800759729</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8847890884860384</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8649654062751408</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9039900342572406</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8763036133552204</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9939826700898589</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9140669966616785</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7181844983223596</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9987668704755742</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8644873961931359</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7860286057180264</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9128574871465296</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9032834979200922</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8861327359129536</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8041319388576026</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9106596075988789</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8993696908066028</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9733632862644415</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9490618165074249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7449694404458019</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9987550668708922</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8584993018299404</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8090367268041238</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.840857969151671</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9161985686179465</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.912653721682848</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8657827835880934</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9335973927810662</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8948856413987779</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.9764796091228446</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9339104408886844</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7770921871296006</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9980242848751386</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8488235769728331</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8450990657216494</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7976833627892032</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9364697802197802</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9114401294498382</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8795237329042639</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.9320096003769474</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9153772650366877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9443820324898804</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8601128122481869</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7648712782313833</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9984708171666428</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8559537810184641</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8158463584968406</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7968624457657079</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9458819726985817</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8814244967363282</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8473833279691021</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8975305873265057</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8723601366752718</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9752046220510352</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9016441005802708</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8031159186309331</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9980836500633923</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8296053501874036</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8502901615241143</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8519491082904884</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9342730144247067</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8876436537338317</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8218954143201931</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9053229523512925</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9294166253878908</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9778562259306802</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.9041625417290204</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.7663622580056437</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9982025540223213</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8931520540898067</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8435621548324752</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.685797919344473</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9189580501775764</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9194168021739667</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7915398230088496</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.9270183743382124</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8666532247459915</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9881458600770219</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9371221365258431</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7199446183233644</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9988251941692969</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.8797912838979937</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.8489247744845361</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8975437821336761</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9257157702311818</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8962513484358144</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8262139983909895</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9226129124088307</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9276086823118935</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9750708821483978</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8678300909404858</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7663834597057075</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9988970572919199</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.836230595084088</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7691839159149484</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8279542898457584</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.936632937198548</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9045253505933117</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.819526950925181</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9091399907726438</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8773833840327515</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.9344763637012072</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8813767698860365</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.751718279403815</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.999036086071148</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.8431994590144655</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8253606168939143</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8664631206813435</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9166112146215952</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8727798804234544</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8726424203411651</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.911063766165807</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8821442377332166</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.9369382924089232</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.9450308556691536</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.748364476141006</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9988967101270761</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8639641361064158</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8633565220101933</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.8247308804627251</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9077965650632527</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9061119505099005</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8006017699115044</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.923024602927437</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8804729548125129</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.932545731707317</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.9305260734430758</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.744970588648201</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9986519589123465</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8207922392886015</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7465697556616566</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8459893155526992</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9602378033132789</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8907450113661604</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9216926790024136</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9199177826222359</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8992009362589967</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.996630295250321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8913387820881777</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7831972267934628</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9986516117475028</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.8688322187109576</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8214199420103093</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7762441757712082</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.886978478578376</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8868716289104639</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8352566371681417</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9368760491209471</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.911303048101621</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.927120669056153</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8642247035800622</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7093046026570837</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.9987338898154332</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.8938331639253373</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8266651900773195</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8889379820051414</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9142136144398588</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9032470334412082</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8008173773129525</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.9132260407770613</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8787027377685828</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.9448991601134114</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.892918153562795</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7812677707650293</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9982017491680981</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.8461513583441138</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8307023195876289</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8991041298409128</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9178771055933685</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.902317481213318</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.8148696491792726</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8919638184944307</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.918150351685558</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.9732185844968704</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.9262987012987013</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7572545661299154</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9988980987864505</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.8392709634746822</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8038487315499354</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8239375803341902</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.9389587471763629</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8953243811680958</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8393885760257441</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.9147256306446592</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8821411356513125</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.970515083440308</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8949142396684702</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7563631003355281</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9980142170946746</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.8729595061365474</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8521345185708571</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.7884700353470437</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9250916394995549</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8996240529342243</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8356427996781979</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9246689504827157</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.899185594936487</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.9991976893453145</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.9025946817082998</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7282930968732715</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9986158537686133</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8810700374807084</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8386356314432989</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.911039926092545</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9357414641409966</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8825269687162891</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.849538213998391</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9178470811123872</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8394727844938678</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.9569803313183187</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.9295545067342005</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7587976816652982</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9987043808037284</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.8067651543152837</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8404327077963918</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.842615279562982</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.9248794192233106</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8865938511326862</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8246757843925985</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9175648614424124</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9051292616002313</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.967795431444926</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.922122712098538</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.7383862565729891</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9988471992925965</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.8335381630012937</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.7790987695377452</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8813524425518239</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9332103882276893</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9299873841259394</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8761699388477631</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.905150631681244</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9264037430184974</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.9831186807896003</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9149304596113106</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7602588760511576</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9988026284544638</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.8292437715881531</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.861792715049434</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7574811214652957</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9352963353704706</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8723288152046046</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8576669348350765</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8925319215197759</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8946802579349654</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.9974326059050065</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9226131000345343</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.7433982395305415</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9974304594101808</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.877630631292717</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7897329059273999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9460355077120822</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.9202094798171329</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9246597692765418</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.7689332260659694</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.903661164746185</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.868336386987052</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.98423459563543</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8967652814550477</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.7232359115129985</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9986512645826593</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8519438524288969</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8327007490335052</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8675188785347043</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9256745839392471</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9062621359223301</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.9079452936444087</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.9115130900845186</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9102181974384375</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.9685622068867134</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.915607229193047</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.7350302847071676</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9990807074941781</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.8304091203104786</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8326856475515465</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7865520565552699</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9184852195315997</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9066423948220065</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.8340788415124699</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9052159103179512</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.8982212832358794</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.9764261131617896</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.9072982617704616</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.784651675454054</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9989908645587876</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.8481388921557098</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8259581809112071</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8344448015426642</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.91893861617045</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9119192584060117</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.8904538139684584</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.9455931823278763</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9010503912307439</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9775718183277162</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8790503822418716</v>
       </c>
     </row>
   </sheetData>
